--- a/125 × 战扩4 - Skill Mastery - 技能熟练机制.xlsx
+++ b/125 × 战扩4 - Skill Mastery - 技能熟练机制.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>介绍</t>
   </si>
@@ -52,13 +52,22 @@
     <t>·通过注释标签根据技能单独自定义这些更改。</t>
   </si>
   <si>
-    <t>·通过插件参数中的公式调整所需的技能掌握经验量。</t>
+    <t>·通过插件参数中的公式调整所需的技能精通EXP。</t>
   </si>
   <si>
     <t>·设置一个变量，自动记录战斗中或技能菜单中上次使用技能的技能精通水平。</t>
   </si>
   <si>
     <t>·插件命令允许您手动调整等级增益和技能精通经验。</t>
+  </si>
+  <si>
+    <t>额外功能</t>
+  </si>
+  <si>
+    <t>Visual Gauge Styles VisuStella MZ</t>
+  </si>
+  <si>
+    <t>如果还安装了 VisuStella MZ 的 Visual Gauge Styles，您可以更改 技能精通 经验条 的显示方式。</t>
   </si>
   <si>
     <t>Mastery-Related Notetags  熟练</t>
@@ -833,7 +842,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,6 +897,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14.05"/>
+      <color rgb="FFE69710"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1039,13 +1055,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
@@ -1056,6 +1065,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1400,133 +1416,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1573,7 +1589,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2077,10 +2093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2095,7 +2111,7 @@
       </c>
     </row>
     <row r="2" ht="40.5" spans="2:2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2134,7 +2150,25 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="2:2">
+      <c r="B14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="Visual Gauge Styles VisuStella MZ" tooltip="http://www.yanfly.moe/wiki/Visual_Gauge_Styles_VisuStella_MZ"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2158,78 +2192,78 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" ht="37.5" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="88.5" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="18.75" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="243" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="162" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="162" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2257,50 +2291,50 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2310,40 +2344,40 @@
     </row>
     <row r="11" ht="18.75" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="37.5" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" ht="37.5" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2372,55 +2406,55 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" ht="25.5" spans="1:3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="37.5" spans="1:3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>99</v>
@@ -2428,217 +2462,217 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" ht="162" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" ht="25.5" spans="1:2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C22" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" ht="18.75" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" s="5"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:2">
       <c r="A35" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
